--- a/ifj2.xlsx
+++ b/ifj2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USowa\IFJ\PPL_planowanie\PACS\IPACS_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\self_training\node_js\ifj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22740" windowHeight="5445"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22740" windowHeight="5448"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="PlanSum+robust" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -939,10 +939,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 3" xfId="2"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,9 +958,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -998,7 +998,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1070,7 +1070,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1223,233 +1223,233 @@
   <dimension ref="A1:HR11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J11" sqref="J11:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.21875" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.28515625" customWidth="1"/>
-    <col min="73" max="73" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.33203125" customWidth="1"/>
+    <col min="73" max="73" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="14" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="17" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="9" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="10" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="12" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="14" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="29" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="30" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="18" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="22" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="22" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="27" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="19" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="25" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="189" max="189" width="22" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="10" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="26" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="32" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="20" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:226" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:226" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>226</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>60.4696</v>
       </c>
     </row>
-    <row r="3" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>226</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>68.069199999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>234</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>76.555000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>234</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>74.849000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>239</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>72.83</v>
       </c>
     </row>
-    <row r="7" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>239</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>73.02</v>
       </c>
     </row>
-    <row r="8" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>244</v>
       </c>
@@ -5769,12 +5769,24 @@
       </c>
       <c r="H8" s="1">
         <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>228.07</v>
+      </c>
+      <c r="J8" s="1">
+        <v>59.47</v>
+      </c>
+      <c r="K8" s="1">
+        <v>52.92</v>
+      </c>
+      <c r="L8" s="1">
+        <v>65.47</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
     </row>
-    <row r="9" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>244</v>
       </c>
@@ -5784,12 +5796,24 @@
       </c>
       <c r="H9" s="1">
         <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>228.07</v>
+      </c>
+      <c r="J9" s="1">
+        <v>59.47</v>
+      </c>
+      <c r="K9" s="1">
+        <v>52.92</v>
+      </c>
+      <c r="L9" s="1">
+        <v>65.47</v>
       </c>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
     </row>
-    <row r="10" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>245</v>
       </c>
@@ -5799,12 +5823,24 @@
       </c>
       <c r="H10" s="1">
         <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>228.07</v>
+      </c>
+      <c r="J10" s="1">
+        <v>59.47</v>
+      </c>
+      <c r="K10" s="1">
+        <v>52.92</v>
+      </c>
+      <c r="L10" s="1">
+        <v>65.47</v>
       </c>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
     </row>
-    <row r="11" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:226" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>245</v>
       </c>
@@ -5814,6 +5850,15 @@
       </c>
       <c r="H11" s="1">
         <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>59.47</v>
+      </c>
+      <c r="K11" s="1">
+        <v>52.92</v>
+      </c>
+      <c r="L11" s="1">
+        <v>65.47</v>
       </c>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
